--- a/タスク分割.xlsx
+++ b/タスク分割.xlsx
@@ -309,31 +309,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※土日にできる事は土日にすべて投げる（クラス名考える等）</t>
-    <rPh sb="1" eb="3">
-      <t>ドニチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ドニチ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ナド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>２．このエクセルを常に最前にする。で、徐々に改善と、何に時間がかかったかどうして時間かかったかを残していく</t>
     <rPh sb="9" eb="10">
       <t>ツネ</t>
@@ -358,6 +333,55 @@
     </rPh>
     <rPh sb="48" eb="49">
       <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※「内部設計の通り実装」中に一瞬でも手が止まったら土日に投げてTODO書いて放置。土日なら一瞬で解決する</t>
+    <rPh sb="2" eb="4">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イッシュン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ドニチ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホウチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ドニチ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>イッシュン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カイケツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -864,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -876,7 +900,7 @@
     <row r="1" spans="1:8" ht="44">
       <c r="A1" s="16">
         <f ca="1">TIMEVALUE(TEXT(NOW(),"h:mm:ss"))</f>
-        <v>0.61206018518518512</v>
+        <v>0.71212962962962967</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -950,7 +974,7 @@
       </c>
       <c r="G4" s="13">
         <f ca="1">F4-A1</f>
-        <v>-1.8310185185185124E-2</v>
+        <v>-0.11837962962962967</v>
       </c>
       <c r="H4" s="10"/>
     </row>
@@ -1116,7 +1140,7 @@
     </row>
     <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="22.5">
@@ -1131,7 +1155,7 @@
     </row>
     <row r="19" spans="1:1" ht="22.5">
       <c r="A19" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -1160,6 +1184,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/タスク分割.xlsx
+++ b/タスク分割.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>この画面の合計残り時間</t>
     <rPh sb="2" eb="4">
@@ -383,6 +382,32 @@
     <rPh sb="48" eb="50">
       <t>カイケツ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★このシート・・・タスク　★別シート・・・わずかでも時間かかることはTODOリストに記載。ファイル名と内容。でタスク化。</t>
+    <rPh sb="14" eb="15">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TODOリスト</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -886,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -897,165 +922,148 @@
     <col min="7" max="7" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="44">
-      <c r="A1" s="16">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="44">
+      <c r="A2" s="16">
         <f ca="1">TIMEVALUE(TEXT(NOW(),"h:mm:ss"))</f>
-        <v>0.71212962962962967</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="1" t="s">
+        <v>0.50299768518518517</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="44">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="84">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="44">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="84">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
-        <f>H1</f>
+      <c r="C4" s="7">
+        <f>H2</f>
         <v>540</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="24" customHeight="1">
-      <c r="A4" s="10" t="s">
+    <row r="5" spans="1:8" ht="24" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="10">
-        <f>$C$3/SUM(B$4:B$12)*B4</f>
+      <c r="C5" s="10">
+        <f>$C$4/SUM(B$5:B$13)*B5</f>
         <v>90</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11">
         <v>0.53125</v>
       </c>
-      <c r="F4" s="12">
-        <f>IF(E4="","",E4+TIME(0,C4,0)-TIME(0,D4,0))</f>
+      <c r="F5" s="12">
+        <f>IF(E5="","",E5+TIME(0,C5,0)-TIME(0,D5,0))</f>
         <v>0.59375</v>
       </c>
-      <c r="G4" s="13">
-        <f ca="1">F4-A1</f>
-        <v>-0.11837962962962967</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="82.5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
+      <c r="G5" s="13">
+        <f ca="1">F5-A2</f>
+        <v>9.0752314814814827E-2</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="82.5">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10">
-        <f t="shared" ref="C6:C12" si="0">$C$3/SUM(B$4:B$12)*B6</f>
-        <v>135</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
+      <c r="F6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10">
+        <f t="shared" ref="C7:C13" si="0">$C$4/SUM(B$5:B$13)*B7</f>
+        <v>135</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B8" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
         <v>90</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12" t="str">
-        <f t="shared" ref="F7:F12" si="1">IF(E7="","",E7+TIME(0,C7,0))</f>
-        <v/>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="39">
-      <c r="A8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10">
-        <f t="shared" si="0"/>
-        <v>45</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F8:F13" si="1">IF(E8="","",E8+TIME(0,C8,0))</f>
         <v/>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="26">
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="39">
       <c r="A9" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="10">
         <v>1</v>
@@ -1071,11 +1079,13 @@
         <v/>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="26">
       <c r="A10" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="10">
         <v>1</v>
@@ -1095,7 +1105,7 @@
     </row>
     <row r="11" spans="1:8" ht="26">
       <c r="A11" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
@@ -1113,9 +1123,9 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="26">
       <c r="A12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
@@ -1133,54 +1143,74 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
-      <c r="A15" s="14" t="s">
-        <v>21</v>
-      </c>
+    <row r="13" spans="1:8">
+      <c r="A13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16.5">
+      <c r="A17" s="14" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="22.5">
-      <c r="A17" s="15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="22.5">
       <c r="A18" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="22.5">
       <c r="A19" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="22.5">
+      <c r="A20" s="15" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1192,23 +1222,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="75.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
